--- a/CH559Pico_pin.xlsx
+++ b/CH559Pico_pin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akita/Dropbox/KiCAD/CH558Pico/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akita/Documents/GitHub/CH559Pico/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38518CD5-1650-9F42-BF96-CFCD89049B33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9250DB5E-C33E-CE40-BC3E-58DF0BDE2335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="21720" windowHeight="16940" xr2:uid="{A4EAA408-4BB2-4748-9D1F-CB1A4CEA2614}"/>
   </bookViews>
@@ -574,7 +574,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8782845" y="463550"/>
+          <a:off x="8308712" y="463550"/>
           <a:ext cx="2171790" cy="5124450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -586,16 +586,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>224057</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>427257</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>141837</xdr:rowOff>
+      <xdr:rowOff>74104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>363757</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>566957</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>253807</xdr:rowOff>
+      <xdr:rowOff>186074</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -610,7 +610,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10485657" y="649837"/>
+          <a:off x="8639924" y="582104"/>
           <a:ext cx="139700" cy="365970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:N22"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1061,7 +1061,7 @@
       <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" t="s">
         <v>85</v>
       </c>
     </row>

--- a/CH559Pico_pin.xlsx
+++ b/CH559Pico_pin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akita/Documents/GitHub/CH559Pico/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akita/Dropbox/KiCAD/SS/CH559Pico/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9250DB5E-C33E-CE40-BC3E-58DF0BDE2335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5635EB32-09FC-FB43-BA10-6238E3788960}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="21720" windowHeight="16940" xr2:uid="{A4EAA408-4BB2-4748-9D1F-CB1A4CEA2614}"/>
+    <workbookView xWindow="200" yWindow="500" windowWidth="20280" windowHeight="16940" xr2:uid="{A4EAA408-4BB2-4748-9D1F-CB1A4CEA2614}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="91">
   <si>
     <t>AIN0</t>
     <phoneticPr fontId="2"/>
@@ -374,6 +374,26 @@
   </si>
   <si>
     <t>LED:P1.5(15)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※v2のみ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>XI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>XO</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -472,7 +492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -498,9 +518,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1028,7 +1045,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1072,7 +1089,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>62</v>
       </c>
       <c r="H3" s="4">
@@ -1089,7 +1106,7 @@
       <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>61</v>
       </c>
       <c r="H4" s="4">
@@ -1122,16 +1139,24 @@
       <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>49</v>
       </c>
       <c r="H6" s="4">
         <v>22</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
@@ -1141,10 +1166,10 @@
       <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>51</v>
       </c>
       <c r="H7" s="4">
@@ -1162,10 +1187,10 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="4">
@@ -1174,7 +1199,7 @@
       <c r="K8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="13" t="s">
         <v>35</v>
       </c>
       <c r="O8" s="2"/>
@@ -1186,10 +1211,10 @@
       <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H9" s="4">
@@ -1198,10 +1223,10 @@
       <c r="K9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O9" s="2"/>
@@ -1216,14 +1241,14 @@
       <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="10"/>
       <c r="H10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N10" s="13"/>
+      <c r="N10" s="12"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
@@ -1236,10 +1261,10 @@
       <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>57</v>
       </c>
       <c r="H11" s="4">
@@ -1248,10 +1273,10 @@
       <c r="K11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="9" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="2"/>
@@ -1266,10 +1291,10 @@
       <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>59</v>
       </c>
       <c r="H12" s="4">
@@ -1278,10 +1303,10 @@
       <c r="K12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="14" t="s">
+      <c r="M12" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="9" t="s">
         <v>40</v>
       </c>
       <c r="O12" s="2"/>
@@ -1293,14 +1318,21 @@
       <c r="C13" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="N13" s="13"/>
+      <c r="K13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15">
@@ -1313,7 +1345,7 @@
       <c r="C14" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -1322,11 +1354,11 @@
       <c r="K14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="14" t="s">
         <v>47</v>
       </c>
       <c r="M14"/>
-      <c r="N14" s="10" t="s">
+      <c r="N14" s="9" t="s">
         <v>48</v>
       </c>
       <c r="O14" s="2"/>
@@ -1341,14 +1373,14 @@
       <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="10"/>
       <c r="H15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N15" s="13"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16">
@@ -1360,7 +1392,7 @@
       <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -1369,7 +1401,7 @@
       <c r="K16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1383,7 +1415,7 @@
       <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>28</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -1392,7 +1424,7 @@
       <c r="K17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="N17" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1403,10 +1435,10 @@
       <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>1</v>
       </c>
       <c r="H18" s="4">
@@ -1415,10 +1447,10 @@
       <c r="K18" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="L18" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M18" s="14" t="s">
+      <c r="M18" s="13" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1432,10 +1464,10 @@
       <c r="D19" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>2</v>
       </c>
       <c r="H19" s="4">
@@ -1444,10 +1476,10 @@
       <c r="K19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="M19" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1461,7 +1493,7 @@
       <c r="D20" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="10"/>
       <c r="H20" s="3" t="s">
         <v>6</v>
       </c>
@@ -1479,10 +1511,10 @@
       <c r="D21" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>65</v>
       </c>
       <c r="H21" s="4">
@@ -1491,10 +1523,10 @@
       <c r="K21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="L21" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="14" t="s">
+      <c r="M21" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1508,10 +1540,10 @@
       <c r="D22" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="14" t="s">
         <v>3</v>
       </c>
       <c r="H22" s="4">
@@ -1520,10 +1552,10 @@
       <c r="K22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="M22" s="14" t="s">
+      <c r="M22" s="13" t="s">
         <v>38</v>
       </c>
     </row>
